--- a/biology/Botanique/François_D'Haene/François_D'Haene.xlsx
+++ b/biology/Botanique/François_D'Haene/François_D'Haene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_D%27Haene</t>
+          <t>François_D'Haene</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-François D'Haene, né le 24 décembre 1985[3] à Lille, est un sportif français de haut-niveau, spécialiste de l'ultra-trail. Il a notamment remporté l'Ultra-Trail du Mont-Blanc en 2012, 2014, 2017 et 2021, ainsi que le Grand Raid en 2013[4], 2014, 2016 et 2018. Il a remporté l'Ultra-Trail World Tour en 2014 et 2017[5]. Il détient depuis 2017 les records de l'UTMB (170 km en 19 h 01 min 32 s)[5] et du John Muir Trail, et a détenu celui du GR 20 en corse[6]. 
+François D'Haene, né le 24 décembre 1985 à Lille, est un sportif français de haut-niveau, spécialiste de l'ultra-trail. Il a notamment remporté l'Ultra-Trail du Mont-Blanc en 2012, 2014, 2017 et 2021, ainsi que le Grand Raid en 2013, 2014, 2016 et 2018. Il a remporté l'Ultra-Trail World Tour en 2014 et 2017. Il détient depuis 2017 les records de l'UTMB (170 km en 19 h 01 min 32 s) et du John Muir Trail, et a détenu celui du GR 20 en corse. 
 Kinésithérapeute de formation, il s'est reconverti au métier de vigneron de 2012 à 2021, et organise aujourd'hui l'Ultra spirit.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_D%27Haene</t>
+          <t>François_D'Haene</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Lille, D'Haene déménage ensuite près de Chambéry avec ses parents, où il vit pendant 20 ans et pratique l'athlétisme.
-Pratiquant le cross-country et le 3 000 m steeple, cet amoureux de la montagne et de la nature se tourne ensuite vers les épreuves de trail organisées dans sa région, en Savoie. En 2006, année où il suit encore ses études de kinésithérapie à Grenoble, il remporte « la rando TGV »[1]. En 2010, il remporte le trail du Ventoux (42 km) et la Gapen’cimes.
-En 2012, il met son métier kinésithérapeute de côté pour reprendre avec son épouse une exploitation viticole dans la commune de Saint-Julien dans le Beaujolais[7],[8]. 
-Il stoppe son activité de vigneron en 2021. Il s'installe définitivement à Beaufort, et organise depuis 2022 avec son épouse l'Ultra spirit[9]. Il s'agit d'un trail décalé et vertueux sur 3 jours. Il se dispute par équipe de 3, sans chronomètre mais avec différents défis ou épreuves rapportant des points.
+Pratiquant le cross-country et le 3 000 m steeple, cet amoureux de la montagne et de la nature se tourne ensuite vers les épreuves de trail organisées dans sa région, en Savoie. En 2006, année où il suit encore ses études de kinésithérapie à Grenoble, il remporte « la rando TGV ». En 2010, il remporte le trail du Ventoux (42 km) et la Gapen’cimes.
+En 2012, il met son métier kinésithérapeute de côté pour reprendre avec son épouse une exploitation viticole dans la commune de Saint-Julien dans le Beaujolais,. 
+Il stoppe son activité de vigneron en 2021. Il s'installe définitivement à Beaufort, et organise depuis 2022 avec son épouse l'Ultra spirit. Il s'agit d'un trail décalé et vertueux sur 3 jours. Il se dispute par équipe de 3, sans chronomètre mais avec différents défis ou épreuves rapportant des points.
 François est marié avec Carline. Ils ont 3 enfants.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_D%27Haene</t>
+          <t>François_D'Haene</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,32 +564,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2006
-2007
-2008
-2009
-2010
-2011
-2012
-2013
-2014
-2015
-2016
-2017
-2018
-2019
-Pour la saison 2019 ses principaux objectifs sont la Hardrock 100 (100 mi) et l'Échappée Belle (144 km)[10], deux ultra-trail auxquels il n'a jamais participé. Il choisit également de participer à l'Ultra Trail de l'île de Madère (115 km) et à la Maxi-Race du Lac d'Annecy (115 km) au printemps, ainsi qu'à Ultra-trail Cape Town (100 km) en fin de saison.
-Du 13 au 16 mars il participe à la Pierra Menta qu'il termine à la 6e place. Le 27 avril il remporte l'Ultra Trail de l'île de Madère après avoir fait la course seul en tête sur la seconde moitié du parcours[11].
-2020
-2021
-Le 5 février, il participe pour la première fois à la Coupe du monde de ski-alpinisme, lors de l'étape française de Flaine (Haute-Savoie) et termine à la 39e place de la course individuelle. Il déclare, par ailleurs, vouloir faire une saison complète de Coupe du monde de ski-alpinisme[12].
-Les 13 et 14 février, il remporte deux titres mondiaux, en catégorie Masters (moins de 40 ans) dans la station de SuperDévoluy, dans les Hautes-Alpes, à l'occasion de la course individuelle et de la vertical race[13].
-Le 3 mars 2021, hors compétition officielle, D'Haene réussit l'exploit d'effectuer les quatre étapes de la Pierra Menta le même jour, soit les 91 km et 10 000 m de dénivelé, avec un temps total de 16 h 42[14].
-Le 17 juillet, il remporte la Hardrock 100 aux États-Unis pour sa première participation en battant le record historique de l'épreuve détenu par Kílian Jornet terminant les 160 km (10 000 m de dénivelé positif) en 21 h 45[15] (Kilian Jornet reprend ce record en 2022 en signant un temps de 21h36).
-Le 28 aout, il remporte l'UTMB (4e victoire) en 20 h 45[16].
-2022
-2023
-Après plus d'un an sans compétition suite à plusieurs blessures, il reprend lors de la diagonale des fous à la Réunion et se classe 8e, après avoir joué le podium pendant la moitié de la course [17].
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la saison 2019 ses principaux objectifs sont la Hardrock 100 (100 mi) et l'Échappée Belle (144 km), deux ultra-trail auxquels il n'a jamais participé. Il choisit également de participer à l'Ultra Trail de l'île de Madère (115 km) et à la Maxi-Race du Lac d'Annecy (115 km) au printemps, ainsi qu'à Ultra-trail Cape Town (100 km) en fin de saison.
+Du 13 au 16 mars il participe à la Pierra Menta qu'il termine à la 6e place. Le 27 avril il remporte l'Ultra Trail de l'île de Madère après avoir fait la course seul en tête sur la seconde moitié du parcours.
 </t>
         </is>
       </c>
@@ -586,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_D%27Haene</t>
+          <t>François_D'Haene</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +597,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Records</t>
+          <t>Palmarès</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Marathon[18] : 2 h 34 min 52 s ;
-Pierra Menta[14] : 16 h 42 min (91 km et 10 000 m de dénivelé positif) ;
-Ultra-Trail du Mont Blanc (UTMB) : 19 h 1 min 32 s (170 km) ;
-Traversée du John Muir Trail : 2 jours 19 heures et 26 minutes (359 km et 14 630 m de dénivelé positif) ;
-Hardrock 100 : 21 h 45 min (160 km et 10 000 m de dénivelé positif)[15].</t>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 février, il participe pour la première fois à la Coupe du monde de ski-alpinisme, lors de l'étape française de Flaine (Haute-Savoie) et termine à la 39e place de la course individuelle. Il déclare, par ailleurs, vouloir faire une saison complète de Coupe du monde de ski-alpinisme.
+Les 13 et 14 février, il remporte deux titres mondiaux, en catégorie Masters (moins de 40 ans) dans la station de SuperDévoluy, dans les Hautes-Alpes, à l'occasion de la course individuelle et de la vertical race.
+Le 3 mars 2021, hors compétition officielle, D'Haene réussit l'exploit d'effectuer les quatre étapes de la Pierra Menta le même jour, soit les 91 km et 10 000 m de dénivelé, avec un temps total de 16 h 42.
+Le 17 juillet, il remporte la Hardrock 100 aux États-Unis pour sa première participation en battant le record historique de l'épreuve détenu par Kílian Jornet terminant les 160 km (10 000 m de dénivelé positif) en 21 h 45 (Kilian Jornet reprend ce record en 2022 en signant un temps de 21h36).
+Le 28 aout, il remporte l'UTMB (4e victoire) en 20 h 45.
+</t>
         </is>
       </c>
     </row>
@@ -620,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_D%27Haene</t>
+          <t>François_D'Haene</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,10 +638,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après plus d'un an sans compétition suite à plusieurs blessures, il reprend lors de la diagonale des fous à la Réunion et se classe 8e, après avoir joué le podium pendant la moitié de la course .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_D'Haene</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_D%27Haene</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Records</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marathon : 2 h 34 min 52 s ;
+Pierra Menta : 16 h 42 min (91 km et 10 000 m de dénivelé positif) ;
+Ultra-Trail du Mont Blanc (UTMB) : 19 h 1 min 32 s (170 km) ;
+Traversée du John Muir Trail : 2 jours 19 heures et 26 minutes (359 km et 14 630 m de dénivelé positif) ;
+Hardrock 100 : 21 h 45 min (160 km et 10 000 m de dénivelé positif).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_D'Haene</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_D%27Haene</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>François D'Haene, La vie courante : Mes courses, mes aventures, mes engagements, Paulsen, mai 2023, 192 p. (ISBN 978235221-3833)</t>
         </is>
